--- a/REGULAR/HRMO/MANIMTIM, JOJIT.xlsx
+++ b/REGULAR/HRMO/MANIMTIM, JOJIT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F52757-9523-41F1-B016-D3EDF5BD26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -419,13 +420,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +461,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -806,6 +813,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,7 +1109,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1119,25 +1126,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1444,103 +1451,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:S238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A118" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
+      <pane ySplit="4056" topLeftCell="A123" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56">
+      <c r="J2" s="57">
         <v>2000747866</v>
       </c>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="62">
         <v>41676</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1548,7 +1555,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1561,24 +1568,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1625,7 +1632,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1640,7 +1647,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>46</v>
       </c>
@@ -1662,7 +1669,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>49</v>
       </c>
@@ -1681,7 +1688,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>50</v>
       </c>
@@ -1701,7 +1708,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>51</v>
       </c>
@@ -1721,7 +1728,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>52</v>
       </c>
@@ -1741,7 +1748,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>54</v>
       </c>
@@ -1765,7 +1772,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>53</v>
       </c>
@@ -1789,7 +1796,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>55</v>
       </c>
@@ -1813,7 +1820,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>48</v>
       </c>
@@ -1831,7 +1838,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>56</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>57</v>
       </c>
@@ -1879,7 +1886,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>58</v>
       </c>
@@ -1903,7 +1910,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>59</v>
       </c>
@@ -1927,7 +1934,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>60</v>
       </c>
@@ -1951,7 +1958,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>98</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>50</v>
       </c>
@@ -1995,7 +2002,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +2022,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
@@ -2035,7 +2042,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>53</v>
       </c>
@@ -2081,7 +2088,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>55</v>
       </c>
@@ -2105,7 +2112,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="52" t="s">
         <v>61</v>
       </c>
@@ -2123,7 +2130,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>56</v>
       </c>
@@ -2147,7 +2154,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -2171,7 +2178,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -2195,7 +2202,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>59</v>
       </c>
@@ -2215,7 +2222,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>60</v>
       </c>
@@ -2239,7 +2246,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>98</v>
       </c>
@@ -2263,7 +2270,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>50</v>
       </c>
@@ -2283,7 +2290,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>51</v>
       </c>
@@ -2307,7 +2314,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -2327,7 +2334,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>54</v>
       </c>
@@ -2351,7 +2358,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>86</v>
       </c>
@@ -2362,7 +2369,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -2379,7 +2386,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>53</v>
       </c>
@@ -2403,7 +2410,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>89</v>
       </c>
@@ -2427,7 +2434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>55</v>
       </c>
@@ -2442,7 +2449,7 @@
       </c>
       <c r="E45" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -2457,7 +2464,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>55</v>
       </c>
@@ -2470,7 +2477,7 @@
       </c>
       <c r="E46" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -2485,7 +2492,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="52" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +2510,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>76</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>56</v>
       </c>
@@ -2540,7 +2547,7 @@
       </c>
       <c r="E49" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -2555,7 +2562,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>57</v>
       </c>
@@ -2579,7 +2586,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>58</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2634,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>96</v>
       </c>
@@ -2640,7 +2647,7 @@
       </c>
       <c r="E53" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -2657,7 +2664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2688,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
         <v>98</v>
       </c>
@@ -2701,7 +2708,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>50</v>
       </c>
@@ -2725,7 +2732,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>51</v>
       </c>
@@ -2749,7 +2756,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
         <v>52</v>
       </c>
@@ -2769,7 +2776,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>54</v>
       </c>
@@ -2789,7 +2796,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2816,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
         <v>55</v>
       </c>
@@ -2833,7 +2840,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="52" t="s">
         <v>63</v>
       </c>
@@ -2851,7 +2858,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>56</v>
       </c>
@@ -2871,7 +2878,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +2898,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>58</v>
       </c>
@@ -2911,7 +2918,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>59</v>
       </c>
@@ -2931,7 +2938,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>60</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +2978,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
         <v>50</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +3026,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>52</v>
       </c>
@@ -3039,7 +3046,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
         <v>54</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>53</v>
       </c>
@@ -3079,7 +3086,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="45" t="s">
         <v>55</v>
       </c>
@@ -3103,7 +3110,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="52" t="s">
         <v>64</v>
       </c>
@@ -3121,7 +3128,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
         <v>56</v>
       </c>
@@ -3141,7 +3148,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="45" t="s">
         <v>57</v>
       </c>
@@ -3161,7 +3168,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
         <v>58</v>
       </c>
@@ -3185,7 +3192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
         <v>59</v>
       </c>
@@ -3211,7 +3218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>60</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3258,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>50</v>
       </c>
@@ -3271,7 +3278,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="45" t="s">
         <v>51</v>
       </c>
@@ -3291,7 +3298,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="45" t="s">
         <v>52</v>
       </c>
@@ -3311,7 +3318,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
         <v>54</v>
       </c>
@@ -3331,7 +3338,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>53</v>
       </c>
@@ -3351,7 +3358,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="45" t="s">
         <v>55</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>65</v>
       </c>
@@ -3393,7 +3400,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>56</v>
       </c>
@@ -3413,7 +3420,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="45" t="s">
         <v>57</v>
       </c>
@@ -3433,7 +3440,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="45" t="s">
         <v>58</v>
       </c>
@@ -3453,7 +3460,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
         <v>59</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="45" t="s">
         <v>60</v>
       </c>
@@ -3493,7 +3500,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="45" t="s">
         <v>98</v>
       </c>
@@ -3513,7 +3520,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="45" t="s">
         <v>50</v>
       </c>
@@ -3533,7 +3540,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="51"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>51</v>
       </c>
@@ -3553,7 +3560,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>52</v>
       </c>
@@ -3573,7 +3580,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="45" t="s">
         <v>54</v>
       </c>
@@ -3593,7 +3600,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>53</v>
       </c>
@@ -3613,7 +3620,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="45" t="s">
         <v>55</v>
       </c>
@@ -3637,7 +3644,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="52" t="s">
         <v>66</v>
       </c>
@@ -3655,7 +3662,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
         <v>56</v>
       </c>
@@ -3675,7 +3682,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
         <v>57</v>
       </c>
@@ -3695,7 +3702,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="45" t="s">
         <v>58</v>
       </c>
@@ -3715,7 +3722,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="45" t="s">
         <v>59</v>
       </c>
@@ -3735,7 +3742,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="45" t="s">
         <v>60</v>
       </c>
@@ -3755,7 +3762,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="45" t="s">
         <v>98</v>
       </c>
@@ -3775,7 +3782,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="45" t="s">
         <v>50</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="45" t="s">
         <v>51</v>
       </c>
@@ -3819,7 +3826,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="45" t="s">
         <v>52</v>
       </c>
@@ -3839,7 +3846,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="45" t="s">
         <v>54</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="49" t="s">
         <v>53</v>
       </c>
@@ -3883,7 +3890,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="45" t="s">
         <v>55</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="52" t="s">
         <v>67</v>
       </c>
@@ -3925,7 +3932,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="45" t="s">
         <v>56</v>
       </c>
@@ -3945,7 +3952,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="45" t="s">
         <v>57</v>
       </c>
@@ -3965,7 +3972,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="45" t="s">
         <v>58</v>
       </c>
@@ -3985,7 +3992,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="45" t="s">
         <v>59</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="45" t="s">
         <v>108</v>
       </c>
@@ -4021,7 +4028,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.729000000000013</v>
+        <v>77.729000000000013</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4036,7 +4043,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="45" t="s">
         <v>60</v>
       </c>
@@ -4062,7 +4069,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="45"/>
       <c r="B121" s="20" t="s">
         <v>126</v>
@@ -4080,11 +4087,11 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="65">
+      <c r="K121" s="54">
         <v>44687</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="45" t="s">
         <v>98</v>
       </c>
@@ -4104,7 +4111,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="45" t="s">
         <v>50</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="45" t="s">
         <v>51</v>
       </c>
@@ -4148,7 +4155,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="45" t="s">
         <v>52</v>
       </c>
@@ -4172,7 +4179,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="45" t="s">
         <v>54</v>
       </c>
@@ -4198,7 +4205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="49" t="s">
         <v>53</v>
       </c>
@@ -4218,7 +4225,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="45" t="s">
         <v>55</v>
       </c>
@@ -4238,7 +4245,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="52" t="s">
         <v>117</v>
       </c>
@@ -4256,7 +4263,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="45" t="s">
         <v>56</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="45" t="s">
         <v>57</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="45" t="s">
         <v>58</v>
       </c>
@@ -4326,7 +4333,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="45" t="s">
         <v>59</v>
       </c>
@@ -4352,9 +4359,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="45">
-        <v>11444</v>
+        <v>45077</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -4369,10 +4376,14 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="45">
+        <v>45107</v>
+      </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
@@ -4382,10 +4393,14 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="45">
+        <v>45138</v>
+      </c>
       <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
@@ -4395,10 +4410,14 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="45">
+        <v>45169</v>
+      </c>
       <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D137" s="39"/>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
@@ -4408,10 +4427,14 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="45">
+        <v>45199</v>
+      </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
@@ -4421,8 +4444,10 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="45">
+        <v>45230</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -4434,8 +4459,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="45"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="45">
+        <v>45260</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -4447,8 +4474,10 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="45"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="45">
+        <v>45291</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -4460,8 +4489,10 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="45"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="45">
+        <v>45322</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -4473,8 +4504,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="45">
+        <v>45351</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -4486,8 +4519,10 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="45"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="45">
+        <v>45382</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -4499,7 +4534,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="45"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4512,7 +4547,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="45"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4525,7 +4560,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="45"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4538,7 +4573,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="46"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4554,7 +4589,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="46"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4570,7 +4605,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="46"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4586,7 +4621,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="46"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4602,7 +4637,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="47"/>
       <c r="B152" s="15"/>
       <c r="C152" s="40"/>
@@ -4618,262 +4653,262 @@
       <c r="J152" s="12"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="48"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="48"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="48"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="48"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="48"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="48"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="48"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="48"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="48"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="48"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="48"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="48"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="48"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="48"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="48"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="48"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="48"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="48"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="48"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="48"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="48"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="48"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="48"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="48"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="48"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="48"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="48"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="48"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="48"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="48"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="48"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="48"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="48"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="48"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="48"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="48"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="48"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="48"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="48"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="48"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="48"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="48"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="48"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="48"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="48"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="48"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="48"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="48"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="48"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="48"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="48"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="48"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="48"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="48"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="48"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="48"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="48"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="48"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="48"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="48"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="48"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="48"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="48"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="48"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="48"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="48"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="48"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="48"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="48"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="48"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="48"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="48"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="48"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="48"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="48"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="48"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="48"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="48"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="48"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="48"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="48"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="48"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="48"/>
     </row>
   </sheetData>
@@ -4890,11 +4925,12 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4917,41 +4953,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4980,7 +5016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5006,7 +5042,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.25</v>
@@ -5021,10 +5057,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -5040,17 +5076,17 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>204.27100000000002</v>
+        <v>209.27100000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5077,7 +5113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5103,7 +5139,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5129,7 +5165,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5155,7 +5191,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5181,7 +5217,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5207,7 +5243,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5233,7 +5269,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5259,7 +5295,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5279,7 +5315,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5299,7 +5335,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5319,7 +5355,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5340,7 +5376,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5361,7 +5397,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5382,7 +5418,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5403,7 +5439,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5424,7 +5460,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5445,7 +5481,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5466,7 +5502,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5487,7 +5523,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5508,7 +5544,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5529,7 +5565,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5550,7 +5586,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5571,7 +5607,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5592,7 +5628,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5613,7 +5649,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5634,7 +5670,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5655,7 +5691,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5676,7 +5712,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5697,7 +5733,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5718,7 +5754,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5739,7 +5775,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5748,7 +5784,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5757,7 +5793,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5766,7 +5802,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5775,7 +5811,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5784,7 +5820,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5793,7 +5829,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5802,7 +5838,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5811,7 +5847,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5820,7 +5856,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5829,7 +5865,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5838,7 +5874,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5847,7 +5883,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5856,7 +5892,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5865,7 +5901,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5874,7 +5910,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5883,7 +5919,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5892,7 +5928,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5901,7 +5937,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5910,7 +5946,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5919,7 +5955,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5928,7 +5964,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5937,7 +5973,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5946,7 +5982,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5955,7 +5991,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5964,7 +6000,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5973,7 +6009,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5982,7 +6018,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5991,7 +6027,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6000,7 +6036,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
